--- a/4/levels_of_tests_lizaveta_zinovich_backup.xlsx
+++ b/4/levels_of_tests_lizaveta_zinovich_backup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Компонентное" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Создать альбом</t>
   </si>
@@ -134,124 +134,64 @@
     <t>Сохранить к себе фотографию другого пользователя</t>
   </si>
   <si>
-    <t>Change avatar in the profile</t>
-  </si>
-  <si>
-    <t>View a profile page by tag in a photo</t>
-  </si>
-  <si>
     <t>Отметить друга на фотографии. Проверить действительность ссылки на друга</t>
   </si>
   <si>
-    <t>share photo to the group</t>
-  </si>
-  <si>
     <t>Добавить товар на фотографию. Проверить товар на фотографии</t>
   </si>
   <si>
-    <t>share photo to the chat</t>
-  </si>
-  <si>
-    <t>Поделиться фото на своей стене</t>
-  </si>
-  <si>
-    <t>share photo in my story</t>
-  </si>
-  <si>
-    <t>Поделиться фото в своем сообществе</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check photo frame after uploading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Поделиться фото в своей истории</t>
-  </si>
-  <si>
-    <t>attaching photo to the message from pc</t>
-  </si>
-  <si>
-    <t>Поделиться фото в личном сообщении</t>
-  </si>
-  <si>
-    <t>attaching photo from private and public album</t>
-  </si>
-  <si>
-    <t>Прикрепить к сообщению фото из своих фотографий</t>
-  </si>
-  <si>
-    <t>add image from other people to the album</t>
-  </si>
-  <si>
-    <t>leave cooment under image</t>
-  </si>
-  <si>
-    <t>Редактировать комментарий к фотографии</t>
-  </si>
-  <si>
-    <t>receive notification about tag in the picture</t>
-  </si>
-  <si>
-    <t>Оценить комментарий к фотографии</t>
-  </si>
-  <si>
-    <t>check a notification for the person you marked on the photo</t>
-  </si>
-  <si>
-    <t>Удалить комментарий к фотографии</t>
-  </si>
-  <si>
-    <t>check a posibility to see the place you marked on your photo</t>
+    <t>Поделиться фотографией на своей стене</t>
+  </si>
+  <si>
+    <t>Поделиться фотографией в своем сообществе</t>
+  </si>
+  <si>
+    <t>Поделиться фотографией в своей истории</t>
+  </si>
+  <si>
+    <t>Поделиться фотографией в личном сообщении</t>
+  </si>
+  <si>
+    <t>Прикрепить к сообщению фотографию из своих фотографий</t>
+  </si>
+  <si>
+    <t>Добавить комментарий к фотографии друга</t>
+  </si>
+  <si>
+    <t>Редактировать комментарий к фотографии друга</t>
+  </si>
+  <si>
+    <t>Оценить комментарий к фотографии друга</t>
+  </si>
+  <si>
+    <t>Удалить комментарий к фотографии друга</t>
   </si>
   <si>
     <t>Восстановить удаленный комментарий к фотографии</t>
   </si>
   <si>
-    <t>check a notification to the person you reply to his/her comment</t>
-  </si>
-  <si>
     <t>Поставить комментарию отметку "Нравится"</t>
   </si>
   <si>
-    <t>check you notification when someone like your photo</t>
-  </si>
-  <si>
     <t>Убрать с комментария отметку "Нравится"</t>
   </si>
   <si>
-    <t>remove photo from wall/dirrect/story</t>
-  </si>
-  <si>
-    <t>undo removing from wall/dirrect/story</t>
-  </si>
-  <si>
-    <t>open profile by tag on the picture</t>
-  </si>
-  <si>
-    <t>open profile of image commentator</t>
-  </si>
-  <si>
-    <t>archive post with photo album</t>
-  </si>
-  <si>
-    <t>add photo for music album</t>
+    <t>Отправка пользователю уведомления об отметке "Нравится" на фотографии</t>
+  </si>
+  <si>
+    <t>Отправка пользователю уведомления о новом комментарии к фотографии</t>
+  </si>
+  <si>
+    <t>Отправка пользователю уведомления о новой отметке на фотографии</t>
+  </si>
+  <si>
+    <t>Создать запись на стене с фотографией</t>
+  </si>
+  <si>
+    <t>Удалить запись на стене с фотографией</t>
+  </si>
+  <si>
+    <t>Отправка пользователю уведомления об ответе на ваш комментарии к фотографии</t>
   </si>
 </sst>
 </file>
@@ -259,12 +199,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,42 +216,122 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,127 +344,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,13 +373,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,79 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,97 +529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +572,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,21 +633,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -759,16 +667,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,140 +688,136 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1233,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1249,7 +1153,7 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1353,7 +1257,7 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1409,7 +1313,7 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1425,7 +1329,7 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1473,7 +1377,7 @@
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1481,46 +1385,64 @@
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>30</v>
+      <c r="B37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1528,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1536,54 +1458,6 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1596,164 +1470,181 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="54.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="75.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="76.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="9.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
